--- a/data/colleges.xlsx
+++ b/data/colleges.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\College Project\college-distance-finder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prathamesh\Documents\GitHub\College-Option-Form-Designer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B8F8B-FB20-40D0-901A-245EBA39E5A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297DA016-0760-4F4E-89D0-DF33B7C118B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E2" sqref="E2:E207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,9 +1638,6 @@
       <c r="D2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E2">
-        <v>291</v>
-      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1656,9 +1653,6 @@
       <c r="D3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E3">
-        <v>522</v>
-      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1674,9 +1668,6 @@
       <c r="D4" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E4">
-        <v>865</v>
-      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1692,9 +1683,6 @@
       <c r="D5" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E5">
-        <v>897</v>
-      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
@@ -1711,9 +1699,6 @@
       <c r="D6" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E6">
-        <v>1172</v>
-      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
@@ -1730,9 +1715,6 @@
       <c r="D7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E7">
-        <v>1230</v>
-      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
@@ -1749,9 +1731,6 @@
       <c r="D8" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E8">
-        <v>1790</v>
-      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
@@ -1768,9 +1747,6 @@
       <c r="D9" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="E9">
-        <v>2895</v>
-      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
@@ -1787,9 +1763,6 @@
       <c r="D10" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E10">
-        <v>3664</v>
-      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -1806,9 +1779,6 @@
       <c r="D11" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E11">
-        <v>4189</v>
-      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
@@ -1825,9 +1795,6 @@
       <c r="D12" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E12">
-        <v>4505</v>
-      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
@@ -1844,9 +1811,6 @@
       <c r="D13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E13">
-        <v>4787</v>
-      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -1863,9 +1827,6 @@
       <c r="D14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E14">
-        <v>5446</v>
-      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
@@ -1882,9 +1843,6 @@
       <c r="D15" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E15">
-        <v>5924</v>
-      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
@@ -1901,9 +1859,6 @@
       <c r="D16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E16">
-        <v>5967</v>
-      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
@@ -1920,9 +1875,6 @@
       <c r="D17" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E17">
-        <v>6607</v>
-      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
@@ -1939,9 +1891,6 @@
       <c r="D18" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E18">
-        <v>6924</v>
-      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
@@ -1958,9 +1907,6 @@
       <c r="D19" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E19">
-        <v>7076</v>
-      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
@@ -1977,9 +1923,6 @@
       <c r="D20" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E20">
-        <v>7208</v>
-      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
@@ -1996,9 +1939,6 @@
       <c r="D21" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E21">
-        <v>7217</v>
-      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
@@ -2015,9 +1955,6 @@
       <c r="D22" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E22">
-        <v>7539</v>
-      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -2034,9 +1971,6 @@
       <c r="D23" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E23">
-        <v>7750</v>
-      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
@@ -2053,9 +1987,6 @@
       <c r="D24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E24">
-        <v>7933</v>
-      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -2072,9 +2003,6 @@
       <c r="D25" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E25">
-        <v>8303</v>
-      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
@@ -2091,9 +2019,6 @@
       <c r="D26" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E26">
-        <v>9035</v>
-      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -2110,9 +2035,6 @@
       <c r="D27" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E27">
-        <v>9179</v>
-      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
@@ -2129,9 +2051,6 @@
       <c r="D28" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E28">
-        <v>9373</v>
-      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -2148,9 +2067,6 @@
       <c r="D29" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E29">
-        <v>10367</v>
-      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
@@ -2167,9 +2083,6 @@
       <c r="D30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E30">
-        <v>10511</v>
-      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
@@ -2186,9 +2099,6 @@
       <c r="D31" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E31">
-        <v>10550</v>
-      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
@@ -2205,9 +2115,6 @@
       <c r="D32" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E32">
-        <v>10820</v>
-      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
@@ -2224,9 +2131,6 @@
       <c r="D33" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E33">
-        <v>11595</v>
-      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
@@ -2243,9 +2147,6 @@
       <c r="D34" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E34">
-        <v>12334</v>
-      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
@@ -2262,9 +2163,6 @@
       <c r="D35" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E35">
-        <v>12359</v>
-      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
@@ -2281,9 +2179,7 @@
       <c r="D36" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E36" s="1">
-        <v>12906</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
@@ -2300,9 +2196,6 @@
       <c r="D37" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E37">
-        <v>12989</v>
-      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
@@ -2319,9 +2212,6 @@
       <c r="D38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E38">
-        <v>13302</v>
-      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
@@ -2338,9 +2228,6 @@
       <c r="D39" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E39">
-        <v>13644</v>
-      </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
@@ -2357,9 +2244,6 @@
       <c r="D40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E40">
-        <v>13654</v>
-      </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
@@ -2376,9 +2260,6 @@
       <c r="D41" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E41">
-        <v>13720</v>
-      </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
@@ -2395,9 +2276,6 @@
       <c r="D42" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E42">
-        <v>13997</v>
-      </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
@@ -2414,9 +2292,6 @@
       <c r="D43" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E43">
-        <v>14256</v>
-      </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
@@ -2433,9 +2308,6 @@
       <c r="D44" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E44">
-        <v>14445</v>
-      </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
@@ -2452,9 +2324,6 @@
       <c r="D45" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E45">
-        <v>14692</v>
-      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
@@ -2471,9 +2340,6 @@
       <c r="D46" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E46">
-        <v>14752</v>
-      </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
@@ -2490,9 +2356,6 @@
       <c r="D47" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E47">
-        <v>14847</v>
-      </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
@@ -2509,9 +2372,6 @@
       <c r="D48" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E48">
-        <v>14935</v>
-      </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
@@ -2528,9 +2388,6 @@
       <c r="D49" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E49">
-        <v>15338</v>
-      </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
@@ -2547,9 +2404,6 @@
       <c r="D50" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E50">
-        <v>15948</v>
-      </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
@@ -2566,9 +2420,6 @@
       <c r="D51" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E51">
-        <v>16455</v>
-      </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
@@ -2585,9 +2436,6 @@
       <c r="D52" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E52">
-        <v>16588</v>
-      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
@@ -2604,9 +2452,7 @@
       <c r="D53" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="E53" s="1">
-        <v>16628</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
@@ -2623,9 +2469,6 @@
       <c r="D54" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E54">
-        <v>16632</v>
-      </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
@@ -2642,9 +2485,6 @@
       <c r="D55" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E55">
-        <v>16734</v>
-      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
@@ -2661,9 +2501,6 @@
       <c r="D56" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E56">
-        <v>16793</v>
-      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
@@ -2680,9 +2517,6 @@
       <c r="D57" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E57">
-        <v>16932</v>
-      </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
@@ -2699,9 +2533,6 @@
       <c r="D58" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E58">
-        <v>17489</v>
-      </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
@@ -2718,9 +2549,6 @@
       <c r="D59" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E59">
-        <v>18160</v>
-      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
@@ -2737,9 +2565,6 @@
       <c r="D60" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E60">
-        <v>18283</v>
-      </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
@@ -2755,9 +2580,6 @@
       </c>
       <c r="D61" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="E61">
-        <v>18655</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2773,9 +2595,6 @@
       <c r="D62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E62">
-        <v>18786</v>
-      </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
@@ -2792,9 +2611,6 @@
       <c r="D63" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E63">
-        <v>18861</v>
-      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
@@ -2811,9 +2627,6 @@
       <c r="D64" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E64">
-        <v>18933</v>
-      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
@@ -2830,9 +2643,6 @@
       <c r="D65" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E65">
-        <v>19711</v>
-      </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
@@ -2849,9 +2659,6 @@
       <c r="D66" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E66">
-        <v>19773</v>
-      </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
@@ -2868,9 +2675,6 @@
       <c r="D67" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E67">
-        <v>20556</v>
-      </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
@@ -2887,9 +2691,6 @@
       <c r="D68" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E68">
-        <v>20725</v>
-      </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
@@ -2906,9 +2707,6 @@
       <c r="D69" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E69">
-        <v>21178</v>
-      </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
@@ -2925,9 +2723,6 @@
       <c r="D70" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E70">
-        <v>21650</v>
-      </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
@@ -2944,9 +2739,6 @@
       <c r="D71" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E71">
-        <v>21789</v>
-      </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
@@ -2963,9 +2755,6 @@
       <c r="D72" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E72">
-        <v>21871</v>
-      </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
@@ -2982,9 +2771,6 @@
       <c r="D73" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E73">
-        <v>22104</v>
-      </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
@@ -3001,9 +2787,6 @@
       <c r="D74" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E74">
-        <v>23166</v>
-      </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
@@ -3020,9 +2803,6 @@
       <c r="D75" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E75">
-        <v>23586</v>
-      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
@@ -3039,9 +2819,6 @@
       <c r="D76" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E76">
-        <v>23794</v>
-      </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
@@ -3058,9 +2835,6 @@
       <c r="D77" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E77">
-        <v>24245</v>
-      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
@@ -3077,9 +2851,6 @@
       <c r="D78" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E78">
-        <v>24280</v>
-      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
@@ -3096,9 +2867,6 @@
       <c r="D79" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E79">
-        <v>25517</v>
-      </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
@@ -3115,9 +2883,6 @@
       <c r="D80" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E80">
-        <v>26733</v>
-      </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
@@ -3134,9 +2899,6 @@
       <c r="D81" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E81">
-        <v>27034</v>
-      </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
@@ -3153,9 +2915,6 @@
       <c r="D82" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E82">
-        <v>27082</v>
-      </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
@@ -3172,9 +2931,6 @@
       <c r="D83" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E83">
-        <v>27568</v>
-      </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
@@ -3191,9 +2947,6 @@
       <c r="D84" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E84">
-        <v>27911</v>
-      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
@@ -3210,9 +2963,6 @@
       <c r="D85" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E85">
-        <v>27988</v>
-      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
@@ -3229,9 +2979,6 @@
       <c r="D86" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E86">
-        <v>28260</v>
-      </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
@@ -3248,9 +2995,6 @@
       <c r="D87" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E87">
-        <v>28943</v>
-      </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
@@ -3267,9 +3011,6 @@
       <c r="D88" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E88">
-        <v>29263</v>
-      </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
@@ -3286,9 +3027,6 @@
       <c r="D89" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E89">
-        <v>30296</v>
-      </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
@@ -3305,9 +3043,6 @@
       <c r="D90" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E90">
-        <v>30495</v>
-      </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
@@ -3324,9 +3059,6 @@
       <c r="D91" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E91">
-        <v>31236</v>
-      </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
@@ -3343,9 +3075,6 @@
       <c r="D92" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E92">
-        <v>31869</v>
-      </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
@@ -3362,9 +3091,6 @@
       <c r="D93" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E93">
-        <v>32819</v>
-      </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
@@ -3381,9 +3107,6 @@
       <c r="D94" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E94">
-        <v>32920</v>
-      </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
@@ -3400,9 +3123,6 @@
       <c r="D95" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E95">
-        <v>33007</v>
-      </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
@@ -3419,9 +3139,6 @@
       <c r="D96" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E96">
-        <v>33787</v>
-      </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
@@ -3438,9 +3155,6 @@
       <c r="D97" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E97">
-        <v>33811</v>
-      </c>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
@@ -3457,9 +3171,6 @@
       <c r="D98" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E98">
-        <v>34015</v>
-      </c>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
@@ -3476,9 +3187,6 @@
       <c r="D99" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E99">
-        <v>34147</v>
-      </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
@@ -3495,9 +3203,6 @@
       <c r="D100" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E100">
-        <v>34273</v>
-      </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
@@ -3514,9 +3219,6 @@
       <c r="D101" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E101">
-        <v>34542</v>
-      </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
@@ -3533,9 +3235,7 @@
       <c r="D102" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E102" s="1">
-        <v>34565</v>
-      </c>
+      <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
@@ -3552,9 +3252,6 @@
       <c r="D103" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E103">
-        <v>35181</v>
-      </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
@@ -3571,9 +3268,6 @@
       <c r="D104" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E104">
-        <v>35314</v>
-      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
@@ -3590,9 +3284,6 @@
       <c r="D105" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E105">
-        <v>35322</v>
-      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
@@ -3609,9 +3300,7 @@
       <c r="D106" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E106" s="1">
-        <v>35630</v>
-      </c>
+      <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
@@ -3628,9 +3317,7 @@
       <c r="D107" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E107" s="1">
-        <v>36239</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
@@ -3647,9 +3334,6 @@
       <c r="D108" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E108">
-        <v>36262</v>
-      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
@@ -3666,9 +3350,6 @@
       <c r="D109" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E109">
-        <v>36496</v>
-      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
@@ -3685,9 +3366,6 @@
       <c r="D110" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E110">
-        <v>37514</v>
-      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
@@ -3704,9 +3382,6 @@
       <c r="D111" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E111">
-        <v>37794</v>
-      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
@@ -3723,9 +3398,6 @@
       <c r="D112" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E112">
-        <v>38187</v>
-      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
@@ -3742,9 +3414,6 @@
       <c r="D113" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E113">
-        <v>38441</v>
-      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
@@ -3761,9 +3430,6 @@
       <c r="D114" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E114">
-        <v>38664</v>
-      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
@@ -3780,9 +3446,6 @@
       <c r="D115" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E115">
-        <v>38776</v>
-      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
@@ -3799,9 +3462,6 @@
       <c r="D116" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E116">
-        <v>39708</v>
-      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
@@ -3818,9 +3478,6 @@
       <c r="D117" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E117">
-        <v>40150</v>
-      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
@@ -3837,9 +3494,6 @@
       <c r="D118" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E118">
-        <v>40292</v>
-      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
@@ -3856,9 +3510,6 @@
       <c r="D119" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E119">
-        <v>40862</v>
-      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
@@ -3875,9 +3526,6 @@
       <c r="D120" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E120">
-        <v>40994</v>
-      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
@@ -3894,9 +3542,6 @@
       <c r="D121" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E121">
-        <v>41242</v>
-      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
@@ -3913,9 +3558,6 @@
       <c r="D122" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E122">
-        <v>42241</v>
-      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
@@ -3932,9 +3574,6 @@
       <c r="D123" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E123">
-        <v>42303</v>
-      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
@@ -3951,9 +3590,6 @@
       <c r="D124" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E124">
-        <v>42807</v>
-      </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
@@ -3970,9 +3606,7 @@
       <c r="D125" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E125" s="1">
-        <v>43385</v>
-      </c>
+      <c r="E125" s="1"/>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
@@ -3989,9 +3623,6 @@
       <c r="D126" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E126">
-        <v>43825</v>
-      </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
@@ -4008,9 +3639,6 @@
       <c r="D127" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E127">
-        <v>43910</v>
-      </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
@@ -4027,9 +3655,6 @@
       <c r="D128" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E128">
-        <v>44949</v>
-      </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
@@ -4046,9 +3671,6 @@
       <c r="D129" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E129">
-        <v>44989</v>
-      </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
@@ -4065,9 +3687,6 @@
       <c r="D130" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E130">
-        <v>45040</v>
-      </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
@@ -4084,9 +3703,6 @@
       <c r="D131" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E131">
-        <v>45705</v>
-      </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
@@ -4103,9 +3719,7 @@
       <c r="D132" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E132" s="1">
-        <v>46016</v>
-      </c>
+      <c r="E132" s="1"/>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
@@ -4122,9 +3736,7 @@
       <c r="D133" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E133" s="1">
-        <v>47752</v>
-      </c>
+      <c r="E133" s="1"/>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
@@ -4141,9 +3753,6 @@
       <c r="D134" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E134">
-        <v>47923</v>
-      </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
@@ -4160,9 +3769,6 @@
       <c r="D135" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E135">
-        <v>49603</v>
-      </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
@@ -4179,9 +3785,6 @@
       <c r="D136" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E136">
-        <v>50601</v>
-      </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
@@ -4198,9 +3801,6 @@
       <c r="D137" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E137">
-        <v>50795</v>
-      </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
@@ -4217,9 +3817,6 @@
       <c r="D138" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E138">
-        <v>51186</v>
-      </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
@@ -4236,9 +3833,6 @@
       <c r="D139" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E139">
-        <v>51226</v>
-      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
@@ -4255,9 +3849,7 @@
       <c r="D140" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E140" s="1">
-        <v>51343</v>
-      </c>
+      <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
@@ -4274,9 +3866,6 @@
       <c r="D141" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E141">
-        <v>51580</v>
-      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
@@ -4293,9 +3882,7 @@
       <c r="D142" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E142" s="1">
-        <v>51956</v>
-      </c>
+      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
@@ -4312,9 +3899,6 @@
       <c r="D143" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E143">
-        <v>52359</v>
-      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
@@ -4331,9 +3915,6 @@
       <c r="D144" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="E144">
-        <v>52794</v>
-      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
@@ -4350,9 +3931,6 @@
       <c r="D145" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="E145">
-        <v>53144</v>
-      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
@@ -4369,9 +3947,7 @@
       <c r="D146" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E146" s="1">
-        <v>54128</v>
-      </c>
+      <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
@@ -4388,9 +3964,6 @@
       <c r="D147" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E147">
-        <v>55056</v>
-      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
@@ -4407,9 +3980,6 @@
       <c r="D148" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E148">
-        <v>55092</v>
-      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
@@ -4426,9 +3996,6 @@
       <c r="D149" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E149">
-        <v>55824</v>
-      </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
@@ -4445,9 +4012,6 @@
       <c r="D150" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E150">
-        <v>56094</v>
-      </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
@@ -4464,9 +4028,7 @@
       <c r="D151" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E151" s="1">
-        <v>56236</v>
-      </c>
+      <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
@@ -4483,9 +4045,7 @@
       <c r="D152" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E152" s="1">
-        <v>56522</v>
-      </c>
+      <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
@@ -4502,9 +4062,6 @@
       <c r="D153" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E153">
-        <v>57405</v>
-      </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
@@ -4521,9 +4078,7 @@
       <c r="D154" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E154" s="1">
-        <v>57989</v>
-      </c>
+      <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
@@ -4540,9 +4095,6 @@
       <c r="D155" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E155">
-        <v>58176</v>
-      </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
@@ -4559,9 +4111,6 @@
       <c r="D156" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E156">
-        <v>58336</v>
-      </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
@@ -4578,9 +4127,6 @@
       <c r="D157" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E157">
-        <v>59795</v>
-      </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
@@ -4597,9 +4143,6 @@
       <c r="D158" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E158">
-        <v>60285</v>
-      </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
@@ -4616,9 +4159,6 @@
       <c r="D159" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="E159">
-        <v>60381</v>
-      </c>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
@@ -4635,9 +4175,6 @@
       <c r="D160" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E160">
-        <v>60387</v>
-      </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
@@ -4654,9 +4191,6 @@
       <c r="D161" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E161">
-        <v>60433</v>
-      </c>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
@@ -4673,9 +4207,6 @@
       <c r="D162" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E162">
-        <v>60571</v>
-      </c>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
@@ -4692,9 +4223,6 @@
       <c r="D163" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E163">
-        <v>61399</v>
-      </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
@@ -4711,9 +4239,6 @@
       <c r="D164" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E164">
-        <v>62100</v>
-      </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
@@ -4730,9 +4255,6 @@
       <c r="D165" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E165">
-        <v>62921</v>
-      </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
@@ -4749,9 +4271,6 @@
       <c r="D166" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E166">
-        <v>63009</v>
-      </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
@@ -4768,9 +4287,6 @@
       <c r="D167" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E167">
-        <v>63350</v>
-      </c>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
@@ -4787,9 +4303,6 @@
       <c r="D168" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E168">
-        <v>63394</v>
-      </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
@@ -4806,9 +4319,6 @@
       <c r="D169" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E169">
-        <v>64312</v>
-      </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
@@ -4825,9 +4335,6 @@
       <c r="D170" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E170">
-        <v>64993</v>
-      </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
@@ -4844,9 +4351,6 @@
       <c r="D171" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E171">
-        <v>65445</v>
-      </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
@@ -4863,9 +4367,6 @@
       <c r="D172" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E172">
-        <v>65702</v>
-      </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
@@ -4882,9 +4383,6 @@
       <c r="D173" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="E173">
-        <v>66218</v>
-      </c>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
@@ -4901,9 +4399,6 @@
       <c r="D174" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E174">
-        <v>66378</v>
-      </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
@@ -4920,9 +4415,7 @@
       <c r="D175" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E175" s="1">
-        <v>67958</v>
-      </c>
+      <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
@@ -4939,9 +4432,6 @@
       <c r="D176" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E176">
-        <v>68418</v>
-      </c>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
@@ -4958,9 +4448,6 @@
       <c r="D177" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E177">
-        <v>68583</v>
-      </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
@@ -4977,9 +4464,6 @@
       <c r="D178" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E178">
-        <v>68841</v>
-      </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
@@ -4996,9 +4480,7 @@
       <c r="D179" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E179" s="1">
-        <v>69010</v>
-      </c>
+      <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
@@ -5015,9 +4497,6 @@
       <c r="D180" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E180">
-        <v>69184</v>
-      </c>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
@@ -5034,9 +4513,6 @@
       <c r="D181" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E181">
-        <v>69306</v>
-      </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
@@ -5053,9 +4529,6 @@
       <c r="D182" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E182">
-        <v>70097</v>
-      </c>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
@@ -5072,9 +4545,6 @@
       <c r="D183" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E183">
-        <v>70405</v>
-      </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
@@ -5091,9 +4561,6 @@
       <c r="D184" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E184">
-        <v>72580</v>
-      </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
@@ -5110,9 +4577,6 @@
       <c r="D185" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E185">
-        <v>72592</v>
-      </c>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
@@ -5129,9 +4593,6 @@
       <c r="D186" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E186">
-        <v>73117</v>
-      </c>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
@@ -5148,9 +4609,6 @@
       <c r="D187" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="E187">
-        <v>74515</v>
-      </c>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
@@ -5167,9 +4625,6 @@
       <c r="D188" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E188">
-        <v>74735</v>
-      </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
@@ -5186,9 +4641,6 @@
       <c r="D189" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E189">
-        <v>75395</v>
-      </c>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
@@ -5205,9 +4657,6 @@
       <c r="D190" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E190">
-        <v>81142</v>
-      </c>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
@@ -5224,9 +4673,6 @@
       <c r="D191" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E191">
-        <v>82003</v>
-      </c>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
@@ -5243,9 +4689,6 @@
       <c r="D192" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E192">
-        <v>84747</v>
-      </c>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
@@ -5262,9 +4705,7 @@
       <c r="D193" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E193" s="1">
-        <v>85103</v>
-      </c>
+      <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
@@ -5281,9 +4722,6 @@
       <c r="D194" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E194">
-        <v>85224</v>
-      </c>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
@@ -5300,9 +4738,6 @@
       <c r="D195" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E195">
-        <v>86893</v>
-      </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
@@ -5319,9 +4754,6 @@
       <c r="D196" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E196">
-        <v>89362</v>
-      </c>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
@@ -5338,9 +4770,6 @@
       <c r="D197" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E197">
-        <v>94936</v>
-      </c>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
@@ -5357,9 +4786,6 @@
       <c r="D198" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E198">
-        <v>100214</v>
-      </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
@@ -5376,9 +4802,6 @@
       <c r="D199" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E199">
-        <v>100835</v>
-      </c>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
@@ -5395,9 +4818,6 @@
       <c r="D200" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E200">
-        <v>101906</v>
-      </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
@@ -5414,9 +4834,6 @@
       <c r="D201" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E201">
-        <v>103985</v>
-      </c>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
@@ -5433,9 +4850,6 @@
       <c r="D202" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E202">
-        <v>104389</v>
-      </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
@@ -5452,9 +4866,6 @@
       <c r="D203" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E203">
-        <v>108056</v>
-      </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
@@ -5471,9 +4882,6 @@
       <c r="D204" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E204">
-        <v>118668</v>
-      </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
@@ -5490,9 +4898,6 @@
       <c r="D205" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E205">
-        <v>119364</v>
-      </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
@@ -5509,9 +4914,6 @@
       <c r="D206" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E206">
-        <v>120385</v>
-      </c>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
@@ -5527,9 +4929,6 @@
       </c>
       <c r="D207" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="E207">
-        <v>140429</v>
       </c>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
